--- a/src/test/resources/data/HotelBookingData.xlsx
+++ b/src/test/resources/data/HotelBookingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaWorkspace\HotelReservation.Project\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FB390-F57F-4446-8E7D-8875AAF4FBD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B280A0-8AAA-401B-A636-2FA4C9E13847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{586458BC-5765-46B9-8D77-328886EC1538}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{586458BC-5765-46B9-8D77-328886EC1538}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
   <si>
     <t>UserName</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Please Enter your Credit Card CVV Number</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>FirstBooking</t>
   </si>
   <si>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <t>FourthBooking</t>
+  </si>
+  <si>
+    <t>sharmila.5678@gmail.com</t>
+  </si>
+  <si>
+    <t>Sharmila245678</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD76009-580F-4D2B-94C7-54288B49721A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +712,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -721,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E9933C-8D9B-404C-9D18-1948EFD82D6C}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
@@ -1262,7 +1265,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1276,16 +1279,16 @@
         <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>37</v>
@@ -1294,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1308,16 +1311,16 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>37</v>
@@ -1326,7 +1329,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1340,16 +1343,16 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>37</v>
@@ -1358,7 +1361,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662C0D-BD49-42EE-954F-96EC6F435992}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
@@ -1443,9 +1446,7 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,9 +1482,7 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1519,9 +1518,7 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1665,9 +1662,7 @@
       <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="1" t="s">
         <v>56</v>
       </c>

--- a/src/test/resources/data/HotelBookingData.xlsx
+++ b/src/test/resources/data/HotelBookingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaWorkspace\HotelReservation.Project\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B280A0-8AAA-401B-A636-2FA4C9E13847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49817D0F-ED62-4211-AF7A-2329C9225A20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{586458BC-5765-46B9-8D77-328886EC1538}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
   <si>
     <t>UserName</t>
   </si>
@@ -293,10 +293,13 @@
     <t>FourthBooking</t>
   </si>
   <si>
-    <t>sharmila.5678@gmail.com</t>
-  </si>
-  <si>
-    <t>Sharmila245678</t>
+    <t>sharmiladeva.1234</t>
+  </si>
+  <si>
+    <t>Sharmila2456879</t>
+  </si>
+  <si>
+    <t>sharmila.56879@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -877,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>26</v>
@@ -891,7 +894,7 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{A0D4CE9F-B5FE-4D96-AAA0-397FE28BECBC}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{B0BD5F9F-7FE4-4B19-9C70-9B8C74C38140}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{5EF9D9EC-41BB-4377-87A2-7BDE838A4106}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{5C6613A3-9143-4931-BAD7-92BA899B10D4}"/>
+    <hyperlink ref="E6" r:id="rId4" display="sharmiladeva.1234@gmail.com" xr:uid="{5C6613A3-9143-4931-BAD7-92BA899B10D4}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{2D3A2790-A7DD-4115-B374-4E1AD71DA91D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
